--- a/medicine/Enfance/Sylvie-Catherine_De_Vailly/Sylvie-Catherine_De_Vailly.xlsx
+++ b/medicine/Enfance/Sylvie-Catherine_De_Vailly/Sylvie-Catherine_De_Vailly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sylvie-Catherine De Vailly, née en 1966 à Guise, dans l’Aisne, est une romancière québécoise d'origine française, auteure de nombreux ouvrages de littérature d'enfance et de jeunesse touchant aux genres du roman policier et du fantasy.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sylvie-Catherine De Vailly a fait des études en dessins de mode avant de poursuivre en Anthropologie à l'université de Montréal. En collaboration avec sa sœur, Corinne De Vailly, elle a publié la série Phoenix, détective du Temps, aux éditions du Trécarré. Elle est l’auteure d’un premier livre pour les adultes Le Grand Deuil aux éditions Michel Brûlé, en 2007.
 Elle a publié plusieurs livres jeunesse, dont la série Les Loups du tsar, aux éditions des Intouchables, Les Enfants de Poséidon aux éditions La Semaine, ainsi que la collection Intime aux éditions du Trécarré.
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Les Enfants de Poséidon
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Série Les Enfants de Poséidon
 Titres parus aux éditions La Semaine (Montréal)
 La Malédiction des Atlantes, 2007
 Les Lois de la communauté, 2007
@@ -596,9 +615,7 @@
 Participation roman collectif
 Crimes à la bibliothèque, éd. Druide, 2015
 Alexandre Dumas
-Autre publication
-Pour quatorze dollars, elles sont à vous…, Éditions Publistar, 2004 (en collaboration)
-L'Eau, le défi du siècle, éditions Publistar, 2005</t>
+</t>
         </is>
       </c>
     </row>
@@ -623,10 +640,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autre publication</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pour quatorze dollars, elles sont à vous…, Éditions Publistar, 2004 (en collaboration)
+L'Eau, le défi du siècle, éditions Publistar, 2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sylvie-Catherine_De_Vailly</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sylvie-Catherine_De_Vailly</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sylvie-Catherine De Vailly a été plusieurs fois en nomination pour des prix :
 En lice pour le Prix jeunesse de la science-fiction et du fantastique québécois, 2007 (Prix jeunesse des univers parallèles) pour Phoenix – L'Énigme du tombeau vide (Trécarré).
